--- a/MPTrx/_Parcel Transportation.xlsx
+++ b/MPTrx/_Parcel Transportation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Scope</t>
   </si>
@@ -99,9 +99,6 @@
     <t>[Organization,]</t>
   </si>
   <si>
-    <t>TParty</t>
-  </si>
-  <si>
     <t>[TParties]</t>
   </si>
   <si>
@@ -111,21 +108,12 @@
     <t>[Concerns]</t>
   </si>
   <si>
-    <t>Concern</t>
-  </si>
-  <si>
-    <t>MPTrx</t>
-  </si>
-  <si>
     <t>mptrxObjName</t>
   </si>
   <si>
     <t>ttDescr</t>
   </si>
   <si>
-    <t>Send Parcel Template</t>
-  </si>
-  <si>
     <t>Parcel</t>
   </si>
   <si>
@@ -150,24 +138,6 @@
     <t>TransportationFee</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>length of the parcel (in cm)</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>width of the parcel (in cm)</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>height of the parcel (in cm)</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -186,9 +156,6 @@
     <t>PclTxTplt</t>
   </si>
   <si>
-    <t>Receive Parcel Template</t>
-  </si>
-  <si>
     <t>Parcel Transportation - Delivery</t>
   </si>
   <si>
@@ -267,9 +234,6 @@
     <t>(Name of) the party that has to receive the parcel</t>
   </si>
   <si>
-    <t>Fee for transporting a box(length:[Length], width:[Width], height:[Height], weight:[Weight]) from [SenderAddress] to [DeliveryAddress]</t>
-  </si>
-  <si>
     <t>[Transporter] needs box with [Barcode] to be delivered at [DeliveryAddress]</t>
   </si>
   <si>
@@ -279,9 +243,6 @@
     <t>Transportation need</t>
   </si>
   <si>
-    <t>A box, identified as [Parcel], needs to be transported from [SenderAddress] to [DeliveryAddress].</t>
-  </si>
-  <si>
     <t>Transportation offer</t>
   </si>
   <si>
@@ -291,7 +252,34 @@
     <t>[Sender] has committed to pay [TransportationFee] when [Barcode] is delivered to [Recipient].</t>
   </si>
   <si>
-    <t>[Parcel] has been labeled with [Barcode].</t>
+    <t>Fee for transporting a box(dimensions:[Dimensions], weight:[Weight]) from [SenderAddress] to [DeliveryAddress]</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Dimensions of the parcel (length x width x height, all in cm)</t>
+  </si>
+  <si>
+    <t>A box, known by [Sender] as '[Parcel]', needs to be transported from [SenderAddress] to [DeliveryAddress].</t>
+  </si>
+  <si>
+    <t>[Parcel] has been labeled with [Barcode] (provided by [Transporter]).</t>
+  </si>
+  <si>
+    <t>concSHRoleName</t>
+  </si>
+  <si>
+    <t>Send a Parcel</t>
+  </si>
+  <si>
+    <t>Deliver a Parcel</t>
+  </si>
+  <si>
+    <t>ttIsaTParty</t>
+  </si>
+  <si>
+    <t>ttIsaConcern</t>
   </si>
 </sst>
 </file>
@@ -740,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,15 +752,15 @@
         <v>4</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>6</v>
@@ -783,36 +771,37 @@
       <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>20</v>
+      <c r="E2" s="19" t="str">
+        <f>$A2</f>
+        <v>Scope</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -823,161 +812,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="19" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="13" customWidth="1"/>
+    <col min="1" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="19" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18" style="13" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="str">
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("SHR_",$C3,"_",$D3))</f>
+        <v>SHR_PclTxTplt_Sender</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>IF($A3="","",$A3)</f>
+        <v>SHR_PclTxTplt_Sender</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f>IF($D3="","",'#Scopes'!$A$3)</f>
+        <v>PclTxTplt</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
+        <f>IF(OR($C4="",$D4=""),"",CONCATENATE("SHR_",$C4,"_",$D4))</f>
+        <v>SHR_PclTxTplt_Transporter</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" ref="B4:B5" si="0">IF($A4="","",$A4)</f>
+        <v>SHR_PclTxTplt_Transporter</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f>IF($D4="","",'#Scopes'!$A$3)</f>
+        <v>PclTxTplt</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="str">
-        <f>IF(OR($B3="",$C3=""),"",CONCATENATE("SHR_",$B3,"_",$C3))</f>
-        <v>SHR_PclTxTplt_Sender</v>
-      </c>
-      <c r="B3" s="20" t="str">
-        <f>IF($C3="","",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="str">
-        <f>IF(OR($B4="",$C4=""),"",CONCATENATE("SHR_",$B4,"_",$C4))</f>
-        <v>SHR_PclTxTplt_Transporter</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f>IF($C4="","",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
-        <f t="shared" ref="A5" si="0">IF(OR($B5="",$C5=""),"",CONCATENATE("SHR_",$B5,"_",$C5))</f>
-        <v/>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>IF($C5="","",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A5" si="1">IF(OR($C5="",$D5=""),"",CONCATENATE("SHR_",$C5,"_",$D5))</f>
+        <v/>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f>IF($D5="","",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
-        <f>IF(OR($B7="",$C7=""),"",CONCATENATE("SHR_",$B7,"_",$C7))</f>
+        <f>IF(OR($C7="",$D7=""),"",CONCATENATE("SHR_",$C7,"_",$D7))</f>
         <v>SHR_PclRxTplt_Transporter</v>
       </c>
-      <c r="B7" s="20" t="str">
-        <f>IF($C7="","",'#Scopes'!$A$4)</f>
+      <c r="B7" s="4" t="str">
+        <f t="shared" ref="B7:B9" si="2">IF($A7="","",$A7)</f>
+        <v>SHR_PclRxTplt_Transporter</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>IF($D7="","",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
-        <f t="shared" ref="A8:A9" si="1">IF(OR($B8="",$C8=""),"",CONCATENATE("SHR_",$B8,"_",$C8))</f>
+        <f t="shared" ref="A8:A9" si="3">IF(OR($C8="",$D8=""),"",CONCATENATE("SHR_",$C8,"_",$D8))</f>
         <v>SHR_PclRxTplt_Recipient</v>
       </c>
-      <c r="B8" s="20" t="str">
-        <f>IF($C8="","",'#Scopes'!$A$4)</f>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SHR_PclRxTplt_Recipient</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f>IF($D8="","",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f>IF($C9="","",'#Scopes'!$A$4)</f>
-        <v/>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>IF($D9="","",'#Scopes'!$A$4)</f>
+        <v/>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -986,167 +1006,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:A6" si="0">IF(OR($B3="",$C3=""),"",CONCATENATE("Conc_",$B3,"_",$C3))</f>
+        <f t="shared" ref="A3:B6" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
         <v>Conc_PclTxTplt_Transportation need</v>
       </c>
-      <c r="B3" s="14" t="str">
-        <f>IF(AND($E3="",$C3=""),"",'#Scopes'!$A$3)</f>
+      <c r="B3" s="16" t="str">
+        <f t="shared" ref="B3:B9" si="1">IF($A3="","",$A3)</f>
+        <v>Conc_PclTxTplt_Transportation need</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Conc_PclTxTplt_Transportation offer</v>
       </c>
-      <c r="B4" s="14" t="str">
-        <f>IF(AND($E4="",$C4=""),"",'#Scopes'!$A$3)</f>
+      <c r="B4" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_PclTxTplt_Transportation offer</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Conc_PclTxTplt_Commit to pay</v>
       </c>
-      <c r="B5" s="14" t="str">
-        <f>IF(AND($E5="",$C5=""),"",'#Scopes'!$A$3)</f>
+      <c r="B5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_PclTxTplt_Commit to pay</v>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Conc_PclTxTplt_Parcel identifiability by Transporter</v>
       </c>
-      <c r="B6" s="14" t="str">
-        <f>IF(AND($E6="",$C6=""),"",'#Scopes'!$A$3)</f>
+      <c r="B6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_PclTxTplt_Parcel identifiability by Transporter</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>IF(AND($F6="",$D6=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
-        <f>IF(OR($B8="",$C8=""),"",CONCATENATE("Conc_",$B8,"_",$C8))</f>
+        <f>IF(OR($C8="",$D8=""),"",CONCATENATE("Conc_",$C8,"_",$D8))</f>
         <v>Conc_PclRxTplt_Parcel delivery</v>
       </c>
-      <c r="B8" s="14" t="str">
-        <f>IF(AND($E8="",$C8=""),"",'#Scopes'!$A$4)</f>
+      <c r="B8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_PclRxTplt_Parcel delivery</v>
+      </c>
+      <c r="C8" s="14" t="str">
+        <f>IF(AND($F8="",$D8=""),"",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f t="shared" ref="A9" si="1">IF(OR($B9="",$C9=""),"",CONCATENATE("Conc_",$B9,"_",$C9))</f>
+        <f t="shared" ref="A9:B9" si="2">IF(OR($C9="",$D9=""),"",CONCATENATE("Conc_",$C9,"_",$D9))</f>
         <v>Conc_PclRxTplt_Recipient signature</v>
       </c>
-      <c r="B9" s="14" t="str">
-        <f>IF(AND($E9="",$C9=""),"",'#Scopes'!$A$4)</f>
+      <c r="B9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_PclRxTplt_Recipient signature</v>
+      </c>
+      <c r="C9" s="14" t="str">
+        <f>IF(AND($F9="",$D9=""),"",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1157,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,13 +1303,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1272,13 +1323,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1292,13 +1343,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1311,18 +1362,18 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f t="shared" ref="A7:A25" si="0">IF(OR($B7="",$C7=""),"",CONCATENATE("Var_",$B7,"_",$C7))</f>
+        <f t="shared" ref="A7:A23" si="0">IF(OR($B7="",$C7=""),"",CONCATENATE("Var_",$B7,"_",$C7))</f>
         <v>Var_PclTxTplt_Recipient</v>
       </c>
       <c r="B7" s="14" t="str">
@@ -1330,13 +1381,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1351,13 +1402,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1365,160 +1416,142 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclTxTplt_Length</v>
+        <v>Var_PclTxTplt_Dimensions</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>IF(AND($E9="",$C9=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclTxTplt_Width</v>
+        <v>Var_PclTxTplt_Weight</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>IF(AND($E10="",$C10=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Var_PclTxTplt_Height</v>
-      </c>
-      <c r="B11" s="14" t="str">
-        <f>IF(AND($E11="",$C11=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclTxTplt_Weight</v>
+        <v>Var_PclRxTplt_Barcode</v>
       </c>
       <c r="B12" s="14" t="str">
-        <f>IF(AND($E12="",$C12=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
-      </c>
-      <c r="C12" s="10" t="s">
+        <f>IF(AND($E12="",$C12=""),"",'#Scopes'!$A$4)</f>
+        <v>PclRxTplt</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Var_PclRxTplt_DeliveryAddress</v>
+      </c>
+      <c r="B13" s="14" t="str">
+        <f>IF(AND($E13="",$C13=""),"",'#Scopes'!$A$4)</f>
+        <v>PclRxTplt</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_Barcode</v>
+        <v>Var_PclRxTplt_DeliveryReceipt</v>
       </c>
       <c r="B14" s="14" t="str">
         <f>IF(AND($E14="",$C14=""),"",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_DeliveryAddress</v>
+        <v>Var_PclRxTplt_ReceiptSignature</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>IF(AND($E15="",$C15=""),"",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
+      <c r="C15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_DeliveryReceipt</v>
+        <v/>
       </c>
       <c r="B16" s="14" t="str">
         <f>IF(AND($E16="",$C16=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_ReceiptSignature</v>
+        <v/>
       </c>
       <c r="B17" s="14" t="str">
         <f>IF(AND($E17="",$C17=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1528,7 +1561,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1538,7 +1571,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1548,7 +1581,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1558,7 +1591,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1568,33 +1601,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B23" s="14" t="str">
         <f>IF(AND($E23="",$C23=""),"",'#Scopes'!$A$4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B24" s="14" t="str">
-        <f>IF(AND($E24="",$C24=""),"",'#Scopes'!$A$4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B25" s="14" t="str">
-        <f>IF(AND($E25="",$C25=""),"",'#Scopes'!$A$4)</f>
         <v/>
       </c>
     </row>
@@ -1620,10 +1633,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1649,10 +1662,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1678,34 +1691,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_Parcel Transportation.xlsx
+++ b/MPTrx/_Parcel Transportation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Scope</t>
   </si>
@@ -108,9 +108,6 @@
     <t>[Concerns]</t>
   </si>
   <si>
-    <t>mptrxObjName</t>
-  </si>
-  <si>
     <t>ttDescr</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>Independently verifiable claim by [Recipient] that `[DeliveryReceipt]` is truthful</t>
   </si>
   <si>
-    <t>scopeIII~</t>
-  </si>
-  <si>
     <t>(Name of) the party that has to receive the parcel</t>
   </si>
   <si>
@@ -246,27 +240,15 @@
     <t>Transportation offer</t>
   </si>
   <si>
-    <t>The risks I run when committing myself to `pick up a parcel (identified by [Barcode]) at [SenderAddress], and deliver it to [Recipient] at [DeliveryAddress]`, are acceptable.</t>
-  </si>
-  <si>
     <t>[Sender] has committed to pay [TransportationFee] when [Barcode] is delivered to [Recipient].</t>
   </si>
   <si>
-    <t>Fee for transporting a box(dimensions:[Dimensions], weight:[Weight]) from [SenderAddress] to [DeliveryAddress]</t>
-  </si>
-  <si>
     <t>Dimensions</t>
   </si>
   <si>
     <t>Dimensions of the parcel (length x width x height, all in cm)</t>
   </si>
   <si>
-    <t>A box, known by [Sender] as '[Parcel]', needs to be transported from [SenderAddress] to [DeliveryAddress].</t>
-  </si>
-  <si>
-    <t>[Parcel] has been labeled with [Barcode] (provided by [Transporter]).</t>
-  </si>
-  <si>
     <t>concSHRoleName</t>
   </si>
   <si>
@@ -280,6 +262,18 @@
   </si>
   <si>
     <t>ttIsaConcern</t>
+  </si>
+  <si>
+    <t>A box that [Sender] refers to as '[Parcel]', needs to be transported from [SenderAddress] to [DeliveryAddress].</t>
+  </si>
+  <si>
+    <t>The risks I run when committing myself to `pick up a parcel (with barcode [Barcode]) at [SenderAddress], and deliver it to [Recipient] at [DeliveryAddress]`, are acceptable.</t>
+  </si>
+  <si>
+    <t>I have labeled [Parcel] with the barcode ([Barcode]) that [Transporter] has provided me with.</t>
+  </si>
+  <si>
+    <t>Fee for transporting a box (size = [Dimensions] cm3, weight = [Weight] grams), from [SenderAddress] to [DeliveryAddress]</t>
   </si>
 </sst>
 </file>
@@ -726,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,11 +731,10 @@
     <col min="1" max="1" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="57.5546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -751,14 +744,8 @@
       <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -768,40 +755,27 @@
       <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19" t="str">
-        <f>$A2</f>
-        <v>Scope</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -815,16 +789,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="19" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="13" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -833,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -842,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>16</v>
@@ -885,10 +860,10 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -907,13 +882,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -949,13 +924,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -973,10 +948,10 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13"/>
@@ -1008,16 +983,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="13" customWidth="1"/>
     <col min="6" max="6" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1026,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1035,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>11</v>
@@ -1064,7 +1040,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:B6" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
+        <f t="shared" ref="A3:A6" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
         <v>Conc_PclTxTplt_Transportation need</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -1076,13 +1052,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1099,13 +1075,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,13 +1098,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1145,13 +1121,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1168,18 +1144,18 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f t="shared" ref="A9:B9" si="2">IF(OR($C9="",$D9=""),"",CONCATENATE("Conc_",$C9,"_",$D9))</f>
+        <f t="shared" ref="A9" si="2">IF(OR($C9="",$D9=""),"",CONCATENATE("Conc_",$C9,"_",$D9))</f>
         <v>Conc_PclRxTplt_Recipient signature</v>
       </c>
       <c r="B9" s="16" t="str">
@@ -1191,13 +1167,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1187,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,13 +1279,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1323,13 +1299,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1343,13 +1319,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1362,13 +1338,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1381,13 +1357,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1402,13 +1378,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1423,13 +1399,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1443,13 +1419,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1465,13 +1441,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1484,13 +1460,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1503,13 +1479,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1522,13 +1498,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1633,10 +1609,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1662,10 +1638,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1691,34 +1667,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_Parcel Transportation.xlsx
+++ b/MPTrx/_Parcel Transportation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>Scope</t>
   </si>
@@ -105,9 +105,6 @@
     <t>tPartyReqdOrg</t>
   </si>
   <si>
-    <t>[Concerns]</t>
-  </si>
-  <si>
     <t>ttDescr</t>
   </si>
   <si>
@@ -138,15 +135,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>weight of the parcel (in grams)</t>
-  </si>
-  <si>
-    <t>the address/location where the parcel has to be picked up</t>
-  </si>
-  <si>
-    <t>the address/location where the parcel has to be delivered</t>
-  </si>
-  <si>
     <t>PclRxTplt</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
     <t>Recipient signature</t>
   </si>
   <si>
-    <t>[ReceiptSignature] is the signature of [Recipient] under [DeliveryReceipt]</t>
-  </si>
-  <si>
     <t>DeliveryReceipt</t>
   </si>
   <si>
@@ -213,24 +198,6 @@
     <t>Barcode</t>
   </si>
   <si>
-    <t>Identifier by which [Transporter] can identify the parcel to be transported</t>
-  </si>
-  <si>
-    <t>Identifier by which [Sender] identifies the parcel</t>
-  </si>
-  <si>
-    <t>Statement saying that [Recipient] has received a parcel with [Barcode]</t>
-  </si>
-  <si>
-    <t>Independently verifiable claim by [Recipient] that `[DeliveryReceipt]` is truthful</t>
-  </si>
-  <si>
-    <t>(Name of) the party that has to receive the parcel</t>
-  </si>
-  <si>
-    <t>[Transporter] needs box with [Barcode] to be delivered at [DeliveryAddress]</t>
-  </si>
-  <si>
     <t>Party to which the parcel is to be delivered</t>
   </si>
   <si>
@@ -246,12 +213,6 @@
     <t>Dimensions</t>
   </si>
   <si>
-    <t>Dimensions of the parcel (length x width x height, all in cm)</t>
-  </si>
-  <si>
-    <t>concSHRoleName</t>
-  </si>
-  <si>
     <t>Send a Parcel</t>
   </si>
   <si>
@@ -261,9 +222,6 @@
     <t>ttIsaTParty</t>
   </si>
   <si>
-    <t>ttIsaConcern</t>
-  </si>
-  <si>
     <t>A box that [Sender] refers to as '[Parcel]', needs to be transported from [SenderAddress] to [DeliveryAddress].</t>
   </si>
   <si>
@@ -273,7 +231,55 @@
     <t>I have labeled [Parcel] with the barcode ([Barcode]) that [Transporter] has provided me with.</t>
   </si>
   <si>
-    <t>Fee for transporting a box (size = [Dimensions] cm3, weight = [Weight] grams), from [SenderAddress] to [DeliveryAddress]</t>
+    <t>ttReqdLoA</t>
+  </si>
+  <si>
+    <t>ISOLevel</t>
+  </si>
+  <si>
+    <t>[Objectives]</t>
+  </si>
+  <si>
+    <t>ttIsaObjective</t>
+  </si>
+  <si>
+    <t>objvSHRoleName</t>
+  </si>
+  <si>
+    <t>Fee for transporting a box (size = [Dimensions] cm3, weight = [Weight] grams), from [SenderAddress] to [DeliveryAddress], in Euro's.</t>
+  </si>
+  <si>
+    <t>(Name of) the party that has to receive the parcel.</t>
+  </si>
+  <si>
+    <t>the address/location where the parcel has to be delivered.</t>
+  </si>
+  <si>
+    <t>the address/location where the parcel has to be picked up.</t>
+  </si>
+  <si>
+    <t>Identifier by which [Transporter] can identify the parcel to be transported.</t>
+  </si>
+  <si>
+    <t>Identifier by which [Sender] identifies the parcel.</t>
+  </si>
+  <si>
+    <t>Dimensions of the parcel (length x width x height, all in cm).</t>
+  </si>
+  <si>
+    <t>weight of the parcel (in grams).</t>
+  </si>
+  <si>
+    <t>Statement saying that [Recipient] has received a parcel with [Barcode].</t>
+  </si>
+  <si>
+    <t>Independently verifiable claim by [Recipient] that `[DeliveryReceipt]` is truthful.</t>
+  </si>
+  <si>
+    <t>[Transporter] needs box with [Barcode] to be delivered at [DeliveryAddress].</t>
+  </si>
+  <si>
+    <t>[ReceiptSignature] is the signature of [Recipient] under [DeliveryReceipt].</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -758,24 +764,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -808,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -817,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>16</v>
@@ -860,10 +866,10 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -882,13 +888,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -924,13 +930,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -948,10 +954,10 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13"/>
@@ -983,14 +989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="13" customWidth="1"/>
@@ -999,10 +1005,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1011,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>11</v>
@@ -1040,140 +1046,140 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f t="shared" ref="A3:A6" si="0">IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
-        <v>Conc_PclTxTplt_Transportation need</v>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Obj_",$C3,"_",$D3))</f>
+        <v>Obj_PclTxTplt_Transportation need</v>
       </c>
       <c r="B3" s="16" t="str">
-        <f t="shared" ref="B3:B9" si="1">IF($A3="","",$A3)</f>
-        <v>Conc_PclTxTplt_Transportation need</v>
+        <f t="shared" ref="B3" si="0">IF($A3="","",$A3)</f>
+        <v>Obj_PclTxTplt_Transportation need</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_PclTxTplt_Transportation offer</v>
+        <f t="shared" ref="A4:A9" si="1">IF(OR($C4="",$D4=""),"",CONCATENATE("Obj_",$C4,"_",$D4))</f>
+        <v>Obj_PclTxTplt_Transportation offer</v>
       </c>
       <c r="B4" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_PclTxTplt_Transportation offer</v>
+        <f t="shared" ref="B4:B9" si="2">IF($A4="","",$A4)</f>
+        <v>Obj_PclTxTplt_Transportation offer</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_PclTxTplt_Commit to pay</v>
+        <f t="shared" si="1"/>
+        <v>Obj_PclTxTplt_Commit to pay</v>
       </c>
       <c r="B5" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_PclTxTplt_Commit to pay</v>
+        <f t="shared" si="2"/>
+        <v>Obj_PclTxTplt_Commit to pay</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_PclTxTplt_Parcel identifiability by Transporter</v>
+        <f t="shared" si="1"/>
+        <v>Obj_PclTxTplt_Parcel identifiability by Transporter</v>
       </c>
       <c r="B6" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_PclTxTplt_Parcel identifiability by Transporter</v>
+        <f t="shared" si="2"/>
+        <v>Obj_PclTxTplt_Parcel identifiability by Transporter</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>IF(AND($F6="",$D6=""),"",'#Scopes'!$A$3)</f>
         <v>PclTxTplt</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
-        <f>IF(OR($C8="",$D8=""),"",CONCATENATE("Conc_",$C8,"_",$D8))</f>
-        <v>Conc_PclRxTplt_Parcel delivery</v>
+        <f t="shared" si="1"/>
+        <v>Obj_PclRxTplt_Parcel delivery</v>
       </c>
       <c r="B8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_PclRxTplt_Parcel delivery</v>
+        <f t="shared" si="2"/>
+        <v>Obj_PclRxTplt_Parcel delivery</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>IF(AND($F8="",$D8=""),"",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f t="shared" ref="A9" si="2">IF(OR($C9="",$D9=""),"",CONCATENATE("Conc_",$C9,"_",$D9))</f>
-        <v>Conc_PclRxTplt_Recipient signature</v>
+        <f t="shared" si="1"/>
+        <v>Obj_PclRxTplt_Recipient signature</v>
       </c>
       <c r="B9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>Conc_PclRxTplt_Recipient signature</v>
+        <f t="shared" si="2"/>
+        <v>Obj_PclRxTplt_Recipient signature</v>
       </c>
       <c r="C9" s="14" t="str">
         <f>IF(AND($F9="",$D9=""),"",'#Scopes'!$A$4)</f>
         <v>PclRxTplt</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1193,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,7 +1225,9 @@
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1252,7 +1260,9 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1279,13 +1289,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1299,13 +1309,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1319,13 +1329,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1338,13 +1348,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1357,13 +1367,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1378,13 +1388,16 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1399,13 +1412,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1419,13 +1432,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1441,13 +1454,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1460,13 +1473,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1479,13 +1492,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1498,13 +1511,16 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1609,10 +1625,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1638,10 +1654,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1667,34 +1683,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_Parcel Transportation.xlsx
+++ b/MPTrx/_Parcel Transportation.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Scope</t>
   </si>
@@ -96,9 +96,6 @@
     <t>TTPhrase</t>
   </si>
   <si>
-    <t>[Organization,]</t>
-  </si>
-  <si>
     <t>[TParties]</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>Transporter</t>
-  </si>
-  <si>
-    <t>PostNL, DHL, DPD, TNT</t>
   </si>
   <si>
     <t>Party that requests a parcel to be transported</t>
@@ -764,24 +758,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,16 +799,15 @@
     <col min="3" max="3" width="10.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
     <col min="5" max="5" width="41.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
+    <col min="6" max="9" width="14.77734375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -823,14 +816,22 @@
         <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -848,11 +849,19 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>IF(OR($C3="",$D3=""),"",CONCATENATE("SHR_",$C3,"_",$D3))</f>
         <v>SHR_PclTxTplt_Sender</v>
@@ -866,15 +875,17 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>IF(OR($C4="",$D4=""),"",CONCATENATE("SHR_",$C4,"_",$D4))</f>
         <v>SHR_PclTxTplt_Transporter</v>
@@ -888,17 +899,25 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f t="shared" ref="A5" si="1">IF(OR($C5="",$D5=""),"",CONCATENATE("SHR_",$C5,"_",$D5))</f>
         <v/>
@@ -916,7 +935,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>IF(OR($C7="",$D7=""),"",CONCATENATE("SHR_",$C7,"_",$D7))</f>
         <v>SHR_PclRxTplt_Transporter</v>
@@ -930,17 +949,25 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f t="shared" ref="A8:A9" si="3">IF(OR($C8="",$D8=""),"",CONCATENATE("SHR_",$C8,"_",$D8))</f>
         <v>SHR_PclRxTplt_Recipient</v>
@@ -954,15 +981,17 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1005,10 +1034,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1017,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>11</v>
@@ -1058,13 +1087,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1081,13 +1110,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,13 +1133,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1127,13 +1156,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1150,13 +1179,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,13 +1202,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1261,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1289,13 +1318,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1309,13 +1338,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1329,13 +1358,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1348,13 +1377,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1367,13 +1396,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1388,13 +1417,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="11">
         <v>2</v>
@@ -1412,13 +1441,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1432,13 +1461,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1454,13 +1483,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1473,13 +1502,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1492,13 +1521,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1511,13 +1540,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="11">
         <v>2</v>
@@ -1625,10 +1654,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1654,10 +1683,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1683,34 +1712,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_Parcel Transportation.xlsx
+++ b/MPTrx/_Parcel Transportation.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>Scope</t>
   </si>
@@ -99,9 +99,6 @@
     <t>[TParties]</t>
   </si>
   <si>
-    <t>tPartyReqdOrg</t>
-  </si>
-  <si>
     <t>ttDescr</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>ttReqdLoA</t>
   </si>
   <si>
-    <t>ISOLevel</t>
-  </si>
-  <si>
     <t>[Objectives]</t>
   </si>
   <si>
@@ -274,6 +268,15 @@
   </si>
   <si>
     <t>[ReceiptSignature] is the signature of [Recipient] under [DeliveryReceipt].</t>
+  </si>
+  <si>
+    <t>LoA</t>
+  </si>
+  <si>
+    <t>tPartyReqdOrgRef</t>
+  </si>
+  <si>
+    <t>OrgRef</t>
   </si>
 </sst>
 </file>
@@ -722,9 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -758,24 +759,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +790,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+      <selection activeCell="F1" sqref="F1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +800,7 @@
     <col min="3" max="3" width="10.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
     <col min="5" max="5" width="41.109375" customWidth="1"/>
-    <col min="6" max="9" width="14.77734375" style="13" customWidth="1"/>
+    <col min="6" max="9" width="20.77734375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -807,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -816,19 +817,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -849,16 +850,16 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -875,10 +876,10 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -899,22 +900,22 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -949,22 +950,22 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -981,10 +982,10 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13"/>
@@ -1018,9 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1034,10 +1033,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1046,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>11</v>
@@ -1087,13 +1086,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1110,13 +1109,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,13 +1132,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1156,13 +1155,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1179,13 +1178,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1202,13 +1201,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1221,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1290,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1318,13 +1317,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1338,13 +1337,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1358,13 +1357,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1377,13 +1376,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1396,13 +1395,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1417,13 +1416,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="11">
         <v>2</v>
@@ -1441,13 +1440,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1461,13 +1460,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1483,13 +1482,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1502,13 +1501,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1521,13 +1520,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1540,13 +1539,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="11">
         <v>2</v>
@@ -1642,9 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1654,10 +1651,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1683,10 +1680,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1712,34 +1709,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_Parcel Transportation.xlsx
+++ b/MPTrx/_Parcel Transportation.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D037EF60-7A84-49E2-ACEB-222641718A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="1"/>
+    <workbookView xWindow="-42300" yWindow="1932" windowWidth="17280" windowHeight="9072" tabRatio="703" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
-    <sheet name="#TParties" sheetId="14" r:id="rId2"/>
+    <sheet name="#TTParties" sheetId="14" r:id="rId2"/>
     <sheet name="#Concerns" sheetId="19" r:id="rId3"/>
     <sheet name="#TTexts" sheetId="6" r:id="rId4"/>
     <sheet name="#Organizations" sheetId="20" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -96,9 +107,6 @@
     <t>TTPhrase</t>
   </si>
   <si>
-    <t>[TParties]</t>
-  </si>
-  <si>
     <t>ttDescr</t>
   </si>
   <si>
@@ -177,12 +185,6 @@
     <t>DPD</t>
   </si>
   <si>
-    <t>orgAbbrName</t>
-  </si>
-  <si>
-    <t>OrgAbbrName</t>
-  </si>
-  <si>
     <t>Parcel identifiability by Transporter</t>
   </si>
   <si>
@@ -210,9 +212,6 @@
     <t>Deliver a Parcel</t>
   </si>
   <si>
-    <t>ttIsaTParty</t>
-  </si>
-  <si>
     <t>A box that [Sender] refers to as '[Parcel]', needs to be transported from [SenderAddress] to [DeliveryAddress].</t>
   </si>
   <si>
@@ -231,9 +230,6 @@
     <t>ttIsaObjective</t>
   </si>
   <si>
-    <t>objvSHRoleName</t>
-  </si>
-  <si>
     <t>Fee for transporting a box (size = [Dimensions] cm3, weight = [Weight] grams), from [SenderAddress] to [DeliveryAddress], in Euro's.</t>
   </si>
   <si>
@@ -273,16 +269,31 @@
     <t>LoA</t>
   </si>
   <si>
-    <t>tPartyReqdOrgRef</t>
-  </si>
-  <si>
     <t>OrgRef</t>
+  </si>
+  <si>
+    <t>[TTParties]</t>
+  </si>
+  <si>
+    <t>orgRef</t>
+  </si>
+  <si>
+    <t>objSHRoleName</t>
+  </si>
+  <si>
+    <t>PartyRef</t>
+  </si>
+  <si>
+    <t>ttPartyReqdPartyRef</t>
+  </si>
+  <si>
+    <t>ttIsaTTParty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,6 +443,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -479,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,9 +526,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,6 +578,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -722,7 +770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -759,24 +807,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -786,17 +834,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="1.21875" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
     <col min="5" max="5" width="41.109375" customWidth="1"/>
@@ -805,10 +853,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -817,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>73</v>
@@ -850,16 +898,16 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -876,10 +924,10 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -900,22 +948,22 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -950,22 +998,22 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -982,10 +1030,10 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13"/>
@@ -1012,14 +1060,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1033,10 +1084,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1045,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>11</v>
@@ -1086,13 +1137,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1109,13 +1160,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1132,13 +1183,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1155,13 +1206,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1178,13 +1229,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1201,13 +1252,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1217,11 +1268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1289,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1317,13 +1368,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1337,13 +1388,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1357,13 +1408,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1376,13 +1427,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1395,13 +1446,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1416,13 +1467,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F8" s="11">
         <v>2</v>
@@ -1440,13 +1491,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1460,13 +1511,13 @@
         <v>PclTxTplt</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1482,13 +1533,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1501,13 +1552,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1520,13 +1571,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1539,13 +1590,13 @@
         <v>PclRxTplt</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" s="11">
         <v>2</v>
@@ -1638,10 +1689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1651,10 +1704,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1680,10 +1733,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1709,34 +1762,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/MPTrx/_Parcel Transportation.xlsx
+++ b/MPTrx/_Parcel Transportation.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D037EF60-7A84-49E2-ACEB-222641718A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970535DF-F19F-4294-B941-01170BA63400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42300" yWindow="1932" windowWidth="17280" windowHeight="9072" tabRatio="703" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
     <sheet name="#TTParties" sheetId="14" r:id="rId2"/>
-    <sheet name="#Concerns" sheetId="19" r:id="rId3"/>
+    <sheet name="#Objectives" sheetId="19" r:id="rId3"/>
     <sheet name="#TTexts" sheetId="6" r:id="rId4"/>
     <sheet name="#Organizations" sheetId="20" r:id="rId5"/>
   </sheets>
@@ -134,12 +134,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>PclRxTplt</t>
-  </si>
-  <si>
-    <t>PclTxTplt</t>
-  </si>
-  <si>
     <t>Parcel Transportation - Delivery</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>ttIsaTTParty</t>
+  </si>
+  <si>
+    <t>Scope_SendParcelTemplate</t>
+  </si>
+  <si>
+    <t>Scope_DlvrParcelTemplate</t>
   </si>
 </sst>
 </file>
@@ -773,12 +773,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="57.5546875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -807,24 +809,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -837,15 +839,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="1.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
     <col min="5" max="5" width="41.109375" customWidth="1"/>
     <col min="6" max="9" width="20.77734375" style="13" customWidth="1"/>
@@ -853,10 +855,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -868,16 +870,16 @@
         <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -898,30 +900,30 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>IF(OR($C3="",$D3=""),"",CONCATENATE("SHR_",$C3,"_",$D3))</f>
-        <v>SHR_PclTxTplt_Sender</v>
+        <v>SHR_Scope_SendParcelTemplate_Sender</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>IF($A3="","",$A3)</f>
-        <v>SHR_PclTxTplt_Sender</v>
+        <v>SHR_Scope_SendParcelTemplate_Sender</v>
       </c>
       <c r="C3" s="20" t="str">
         <f>IF($D3="","",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>16</v>
@@ -937,15 +939,15 @@
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>IF(OR($C4="",$D4=""),"",CONCATENATE("SHR_",$C4,"_",$D4))</f>
-        <v>SHR_PclTxTplt_Transporter</v>
+        <v>SHR_Scope_SendParcelTemplate_Transporter</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B5" si="0">IF($A4="","",$A4)</f>
-        <v>SHR_PclTxTplt_Transporter</v>
+        <v>SHR_Scope_SendParcelTemplate_Transporter</v>
       </c>
       <c r="C4" s="20" t="str">
         <f>IF($D4="","",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>17</v>
@@ -954,16 +956,16 @@
         <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -987,15 +989,15 @@
     <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>IF(OR($C7="",$D7=""),"",CONCATENATE("SHR_",$C7,"_",$D7))</f>
-        <v>SHR_PclRxTplt_Transporter</v>
+        <v>SHR_Scope_DlvrParcelTemplate_Transporter</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ref="B7:B9" si="2">IF($A7="","",$A7)</f>
-        <v>SHR_PclRxTplt_Transporter</v>
+        <v>SHR_Scope_DlvrParcelTemplate_Transporter</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>IF($D7="","",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -1004,36 +1006,36 @@
         <v>19</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f t="shared" ref="A8:A9" si="3">IF(OR($C8="",$D8=""),"",CONCATENATE("SHR_",$C8,"_",$D8))</f>
-        <v>SHR_PclRxTplt_Recipient</v>
+        <v>SHR_Scope_DlvrParcelTemplate_Recipient</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>SHR_PclRxTplt_Recipient</v>
+        <v>SHR_Scope_DlvrParcelTemplate_Recipient</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>IF($D8="","",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="13"/>
@@ -1068,14 +1070,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="13" customWidth="1"/>
@@ -1084,10 +1086,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1096,7 +1098,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>11</v>
@@ -1126,139 +1128,139 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
         <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Obj_",$C3,"_",$D3))</f>
-        <v>Obj_PclTxTplt_Transportation need</v>
+        <v>Obj_Scope_SendParcelTemplate_Transportation need</v>
       </c>
       <c r="B3" s="16" t="str">
         <f t="shared" ref="B3" si="0">IF($A3="","",$A3)</f>
-        <v>Obj_PclTxTplt_Transportation need</v>
+        <v>Obj_Scope_SendParcelTemplate_Transportation need</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" ref="A4:A9" si="1">IF(OR($C4="",$D4=""),"",CONCATENATE("Obj_",$C4,"_",$D4))</f>
-        <v>Obj_PclTxTplt_Transportation offer</v>
+        <v>Obj_Scope_SendParcelTemplate_Transportation offer</v>
       </c>
       <c r="B4" s="16" t="str">
         <f t="shared" ref="B4:B9" si="2">IF($A4="","",$A4)</f>
-        <v>Obj_PclTxTplt_Transportation offer</v>
+        <v>Obj_Scope_SendParcelTemplate_Transportation offer</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Obj_PclTxTplt_Commit to pay</v>
+        <v>Obj_Scope_SendParcelTemplate_Commit to pay</v>
       </c>
       <c r="B5" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Obj_PclTxTplt_Commit to pay</v>
+        <v>Obj_Scope_SendParcelTemplate_Commit to pay</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Obj_PclTxTplt_Parcel identifiability by Transporter</v>
+        <v>Obj_Scope_SendParcelTemplate_Parcel identifiability by Transporter</v>
       </c>
       <c r="B6" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Obj_PclTxTplt_Parcel identifiability by Transporter</v>
+        <v>Obj_Scope_SendParcelTemplate_Parcel identifiability by Transporter</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>IF(AND($F6="",$D6=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Obj_PclRxTplt_Parcel delivery</v>
+        <v>Obj_Scope_DlvrParcelTemplate_Parcel delivery</v>
       </c>
       <c r="B8" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Obj_PclRxTplt_Parcel delivery</v>
+        <v>Obj_Scope_DlvrParcelTemplate_Parcel delivery</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>IF(AND($F8="",$D8=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Obj_PclRxTplt_Recipient signature</v>
+        <v>Obj_Scope_DlvrParcelTemplate_Recipient signature</v>
       </c>
       <c r="B9" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Obj_PclRxTplt_Recipient signature</v>
+        <v>Obj_Scope_DlvrParcelTemplate_Recipient signature</v>
       </c>
       <c r="C9" s="14" t="str">
         <f>IF(AND($F9="",$D9=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1274,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,7 +1284,8 @@
     <col min="3" max="3" width="18.21875" style="10" customWidth="1"/>
     <col min="4" max="4" width="14.109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="69.21875" style="12" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="11" customWidth="1"/>
     <col min="9" max="21" width="13.77734375" style="11" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="11"/>
@@ -1305,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1340,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1358,14 +1361,14 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
         <f>IF(OR($B3="",$C3=""),"",CONCATENATE("Var_",$B3,"_",$C3))</f>
-        <v>Var_PclTxTplt_Parcel</v>
+        <v>Var_Scope_SendParcelTemplate_Parcel</v>
       </c>
       <c r="B3" s="14" t="str">
         <f>IF(AND($E3="",$C3=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -1374,38 +1377,38 @@
         <v>16</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f>IF(OR($B4="",$C4=""),"",CONCATENATE("Var_",$B4,"_",$C4))</f>
-        <v>Var_PclTxTplt_Barcode</v>
+        <v>Var_Scope_SendParcelTemplate_Barcode</v>
       </c>
       <c r="B4" s="14" t="str">
         <f>IF(AND($E4="",$C4=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
         <f>IF(OR($B5="",$C5=""),"",CONCATENATE("Var_",$B5,"_",$C5))</f>
-        <v>Var_PclTxTplt_SenderAddress</v>
+        <v>Var_Scope_SendParcelTemplate_SenderAddress</v>
       </c>
       <c r="B5" s="14" t="str">
         <f>IF(AND($E5="",$C5=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
@@ -1414,45 +1417,45 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f>IF(OR($B6="",$C6=""),"",CONCATENATE("Var_",$B6,"_",$C6))</f>
-        <v>Var_PclTxTplt_DeliveryAddress</v>
+        <v>Var_Scope_SendParcelTemplate_DeliveryAddress</v>
       </c>
       <c r="B6" s="14" t="str">
         <f>IF(AND($E6="",$C6=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
         <f t="shared" ref="A7:A23" si="0">IF(OR($B7="",$C7=""),"",CONCATENATE("Var_",$B7,"_",$C7))</f>
-        <v>Var_PclTxTplt_Recipient</v>
+        <v>Var_Scope_SendParcelTemplate_Recipient</v>
       </c>
       <c r="B7" s="14" t="str">
         <f>IF(AND($E7="",$C7=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1460,11 +1463,11 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclTxTplt_TransportationFee</v>
+        <v>Var_Scope_SendParcelTemplate_TransportationFee</v>
       </c>
       <c r="B8" s="14" t="str">
         <f>IF(AND($E8="",$C8=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>21</v>
@@ -1473,9 +1476,9 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="11">
+        <v>53</v>
+      </c>
+      <c r="F8" s="10">
         <v>2</v>
       </c>
       <c r="G8" s="7"/>
@@ -1484,31 +1487,31 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclTxTplt_Dimensions</v>
+        <v>Var_Scope_SendParcelTemplate_Dimensions</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>IF(AND($E9="",$C9=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclTxTplt_Weight</v>
+        <v>Var_Scope_SendParcelTemplate_Weight</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>IF(AND($E10="",$C10=""),"",'#Scopes'!$A$3)</f>
-        <v>PclTxTplt</v>
+        <v>Scope_SendParcelTemplate</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>22</v>
@@ -1517,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1526,79 +1529,79 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_Barcode</v>
+        <v>Var_Scope_DlvrParcelTemplate_Barcode</v>
       </c>
       <c r="B12" s="14" t="str">
         <f>IF(AND($E12="",$C12=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_DeliveryAddress</v>
+        <v>Var_Scope_DlvrParcelTemplate_DeliveryAddress</v>
       </c>
       <c r="B13" s="14" t="str">
         <f>IF(AND($E13="",$C13=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_DeliveryReceipt</v>
+        <v>Var_Scope_DlvrParcelTemplate_DeliveryReceipt</v>
       </c>
       <c r="B14" s="14" t="str">
         <f>IF(AND($E14="",$C14=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Var_PclRxTplt_ReceiptSignature</v>
+        <v>Var_Scope_DlvrParcelTemplate_ReceiptSignature</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>IF(AND($E15="",$C15=""),"",'#Scopes'!$A$4)</f>
-        <v>PclRxTplt</v>
+        <v>Scope_DlvrParcelTemplate</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="11">
+        <v>62</v>
+      </c>
+      <c r="F15" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1704,10 +1707,10 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1733,10 +1736,10 @@
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1762,34 +1765,34 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
